--- a/training/output/Resnet34_ViT/W/W3_W2.xlsx
+++ b/training/output/Resnet34_ViT/W/W3_W2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,802 +447,1602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.4441666666666667</v>
+        <v>0.4610416666666667</v>
       </c>
       <c r="B2" t="n">
-        <v>3.172048826217651</v>
+        <v>2.700490951538086</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.7766666666666667</v>
+        <v>0.7866666666666666</v>
       </c>
       <c r="B3" t="n">
-        <v>2.450402374267578</v>
+        <v>1.902440041303635</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.8866666666666667</v>
+        <v>0.8879166666666666</v>
       </c>
       <c r="B4" t="n">
-        <v>2.189355316162109</v>
+        <v>1.643929541110992</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9175</v>
+        <v>0.9133333333333333</v>
       </c>
       <c r="B5" t="n">
-        <v>1.976322493553162</v>
+        <v>1.473775386810303</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9333333333333332</v>
+        <v>0.913125</v>
       </c>
       <c r="B6" t="n">
-        <v>1.835678997039795</v>
+        <v>1.302871286869049</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9333333333333332</v>
+        <v>0.9233333333333335</v>
       </c>
       <c r="B7" t="n">
-        <v>1.682927722930908</v>
+        <v>1.244268834590912</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9483333333333333</v>
+        <v>0.9560416666666666</v>
       </c>
       <c r="B8" t="n">
-        <v>1.652519025802612</v>
+        <v>1.162154585123062</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9725</v>
+        <v>0.9639583333333334</v>
       </c>
       <c r="B9" t="n">
-        <v>1.665843925476074</v>
+        <v>1.127711147069931</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9625</v>
+        <v>0.9770833333333334</v>
       </c>
       <c r="B10" t="n">
-        <v>1.589841604232788</v>
+        <v>1.08563506603241</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9516666666666667</v>
+        <v>0.9641666666666666</v>
       </c>
       <c r="B11" t="n">
-        <v>1.57031831741333</v>
+        <v>1.026306331157684</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.97</v>
+        <v>0.979375</v>
       </c>
       <c r="B12" t="n">
-        <v>1.565681571960449</v>
+        <v>0.9859382510185242</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9533333333333333</v>
+        <v>0.9820833333333333</v>
       </c>
       <c r="B13" t="n">
-        <v>1.519376592636108</v>
+        <v>0.9971416592597961</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9525</v>
+        <v>0.9768749999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>1.529901475906372</v>
+        <v>0.9752213954925537</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9608333333333333</v>
+        <v>0.9820833333333333</v>
       </c>
       <c r="B15" t="n">
-        <v>1.521144933700562</v>
+        <v>0.9549269676208496</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9675</v>
+        <v>0.971875</v>
       </c>
       <c r="B16" t="n">
-        <v>1.506846809387207</v>
+        <v>0.9300429373979568</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9533333333333333</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B17" t="n">
-        <v>1.516409230232239</v>
+        <v>0.9096525460481644</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9508333333333333</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>1.505197682380676</v>
+        <v>0.8935190588235855</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9725</v>
+        <v>0.9820833333333333</v>
       </c>
       <c r="B19" t="n">
-        <v>1.483804240226746</v>
+        <v>0.8926527053117752</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9675</v>
+        <v>0.9820833333333333</v>
       </c>
       <c r="B20" t="n">
-        <v>1.474266247749329</v>
+        <v>0.8931693434715271</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9675</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B21" t="n">
-        <v>1.466147694587707</v>
+        <v>0.8912564218044281</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.965</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B22" t="n">
-        <v>1.463226718902588</v>
+        <v>0.8684405833482742</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9725</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B23" t="n">
-        <v>1.440477437973023</v>
+        <v>0.8808878362178802</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.975</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B24" t="n">
-        <v>1.448957180976868</v>
+        <v>0.8698887825012207</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9675</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B25" t="n">
-        <v>1.447144241333008</v>
+        <v>0.858090415596962</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9625</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B26" t="n">
-        <v>1.455601825714111</v>
+        <v>0.8589444756507874</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.95</v>
+        <v>0.9768749999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>1.458404049873352</v>
+        <v>0.8578912764787674</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9558333333333333</v>
+        <v>0.9620833333333333</v>
       </c>
       <c r="B28" t="n">
-        <v>1.437539992332459</v>
+        <v>0.8401040285825729</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9608333333333333</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B29" t="n">
-        <v>1.441492986679077</v>
+        <v>0.8322549760341644</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9725</v>
+        <v>0.9870833333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>1.435045146942139</v>
+        <v>0.8341933488845825</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.97</v>
+        <v>0.9870833333333334</v>
       </c>
       <c r="B31" t="n">
-        <v>1.438153681755066</v>
+        <v>0.8442796170711517</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.965</v>
+        <v>0.9870833333333334</v>
       </c>
       <c r="B32" t="n">
-        <v>1.435545153617859</v>
+        <v>0.8390937596559525</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.965</v>
+        <v>0.9820833333333333</v>
       </c>
       <c r="B33" t="n">
-        <v>1.428866682052612</v>
+        <v>0.8209366947412491</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.97</v>
+        <v>0.9870833333333334</v>
       </c>
       <c r="B34" t="n">
-        <v>1.419926586151123</v>
+        <v>0.8286525011062622</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.96</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B35" t="n">
-        <v>1.423114819526672</v>
+        <v>0.8042896389961243</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9625</v>
+        <v>0.9870833333333334</v>
       </c>
       <c r="B36" t="n">
-        <v>1.419108834266663</v>
+        <v>0.813941478729248</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.965</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B37" t="n">
-        <v>1.417893972396851</v>
+        <v>0.8037371635437012</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.96</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B38" t="n">
-        <v>1.417087345123291</v>
+        <v>0.8019538223743439</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.965</v>
+        <v>0.9820833333333333</v>
       </c>
       <c r="B39" t="n">
-        <v>1.422231431007385</v>
+        <v>0.8178245276212692</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.965</v>
+        <v>0.9870833333333334</v>
       </c>
       <c r="B40" t="n">
-        <v>1.423453054428101</v>
+        <v>0.8604593276977539</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9675</v>
+        <v>0.9620833333333333</v>
       </c>
       <c r="B41" t="n">
-        <v>1.430813331604004</v>
+        <v>0.8128009438514709</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9675</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>1.416039323806763</v>
+        <v>0.7997551709413528</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9725</v>
+        <v>0.9820833333333333</v>
       </c>
       <c r="B43" t="n">
-        <v>1.423193202018738</v>
+        <v>0.798510953783989</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.985</v>
+        <v>0.9820833333333333</v>
       </c>
       <c r="B44" t="n">
-        <v>1.428445954322815</v>
+        <v>0.7837505787611008</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.96</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B45" t="n">
-        <v>1.418494696617127</v>
+        <v>0.7795780003070831</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9625</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B46" t="n">
-        <v>1.418906145095825</v>
+        <v>0.8416244089603424</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9583333333333333</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B47" t="n">
-        <v>1.409293522834778</v>
+        <v>0.801651805639267</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9658333333333333</v>
+        <v>0.9870833333333334</v>
       </c>
       <c r="B48" t="n">
-        <v>1.434827132225037</v>
+        <v>0.7883089035749435</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.945</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B49" t="n">
-        <v>1.474649386405945</v>
+        <v>0.7838800996541977</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9675</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B50" t="n">
-        <v>1.429893207550049</v>
+        <v>0.7845966517925262</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9725</v>
+        <v>0.9820833333333333</v>
       </c>
       <c r="B51" t="n">
-        <v>1.416763463020325</v>
+        <v>0.7983978986740112</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.975</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B52" t="n">
-        <v>1.439708414077759</v>
+        <v>0.8025762140750885</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.97</v>
+        <v>0.9897916666666666</v>
       </c>
       <c r="B53" t="n">
-        <v>1.453153557777405</v>
+        <v>0.7718587815761566</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9575</v>
+        <v>0.9870833333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>1.426216325759888</v>
+        <v>0.7842441946268082</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.97</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B55" t="n">
-        <v>1.418516278266907</v>
+        <v>0.7759694755077362</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.96</v>
+        <v>0.9870833333333334</v>
       </c>
       <c r="B56" t="n">
-        <v>1.428585247993469</v>
+        <v>0.7729159444570541</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.97</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B57" t="n">
-        <v>1.428551516532898</v>
+        <v>0.7707415670156479</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9425</v>
+        <v>0.9820833333333333</v>
       </c>
       <c r="B58" t="n">
-        <v>1.429402775764465</v>
+        <v>0.7673084735870361</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9483333333333333</v>
+        <v>0.979375</v>
       </c>
       <c r="B59" t="n">
-        <v>1.413675937652588</v>
+        <v>0.7738563716411591</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.95</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B60" t="n">
-        <v>1.406579742431641</v>
+        <v>0.7638680189847946</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.96</v>
+        <v>0.9820833333333333</v>
       </c>
       <c r="B61" t="n">
-        <v>1.41350438117981</v>
+        <v>0.7978590577840805</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.955</v>
+        <v>0.9870833333333334</v>
       </c>
       <c r="B62" t="n">
-        <v>1.423290243148804</v>
+        <v>0.7722119390964508</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.955</v>
+        <v>0.9870833333333334</v>
       </c>
       <c r="B63" t="n">
-        <v>1.439532675743103</v>
+        <v>0.7826669216156006</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.955</v>
+        <v>0.9870833333333334</v>
       </c>
       <c r="B64" t="n">
-        <v>1.418645887374878</v>
+        <v>0.7782315313816071</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9625</v>
+        <v>0.9870833333333334</v>
       </c>
       <c r="B65" t="n">
-        <v>1.411978921890259</v>
+        <v>0.7649127095937729</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.95</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>1.407366504669189</v>
+        <v>0.7718161344528198</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9525</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B67" t="n">
-        <v>1.423157787322998</v>
+        <v>0.7746898680925369</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9483333333333333</v>
+        <v>0.979375</v>
       </c>
       <c r="B68" t="n">
-        <v>1.406770448684692</v>
+        <v>0.7693527638912201</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9525</v>
+        <v>0.979375</v>
       </c>
       <c r="B69" t="n">
-        <v>1.406331558227539</v>
+        <v>0.7698813229799271</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.955</v>
+        <v>0.9818750000000001</v>
       </c>
       <c r="B70" t="n">
-        <v>1.405089206695557</v>
+        <v>0.7658771127462387</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9458333333333333</v>
+        <v>0.9768749999999999</v>
       </c>
       <c r="B71" t="n">
-        <v>1.403816275596619</v>
+        <v>0.7609152644872665</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.9475</v>
+        <v>0.9818750000000001</v>
       </c>
       <c r="B72" t="n">
-        <v>1.406174983978272</v>
+        <v>0.7614766508340836</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9525</v>
+        <v>0.979375</v>
       </c>
       <c r="B73" t="n">
-        <v>1.422116231918335</v>
+        <v>0.7695668488740921</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.9458333333333333</v>
+        <v>0.9818750000000001</v>
       </c>
       <c r="B74" t="n">
-        <v>1.416474084854126</v>
+        <v>0.7758893519639969</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.9483333333333333</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B75" t="n">
-        <v>1.415052437782288</v>
+        <v>0.7689875811338425</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9533333333333333</v>
+        <v>0.9818750000000001</v>
       </c>
       <c r="B76" t="n">
-        <v>1.400801396369934</v>
+        <v>0.7696952223777771</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9533333333333333</v>
+        <v>0.979375</v>
       </c>
       <c r="B77" t="n">
-        <v>1.407572269439697</v>
+        <v>0.7542556524276733</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9483333333333333</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>1.402035980224609</v>
+        <v>0.7681598961353302</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.9508333333333333</v>
+        <v>0.9768749999999999</v>
       </c>
       <c r="B79" t="n">
-        <v>1.402306118011475</v>
+        <v>0.7515217959880829</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.955</v>
+        <v>0.9818750000000001</v>
       </c>
       <c r="B80" t="n">
-        <v>1.399976453781128</v>
+        <v>0.7588175982236862</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9575</v>
+        <v>0.9818750000000001</v>
       </c>
       <c r="B81" t="n">
-        <v>1.400699791908264</v>
+        <v>0.7648514658212662</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9575</v>
+        <v>0.9818750000000001</v>
       </c>
       <c r="B82" t="n">
-        <v>1.400777139663696</v>
+        <v>0.7520180344581604</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.9508333333333333</v>
+        <v>0.979375</v>
       </c>
       <c r="B83" t="n">
-        <v>1.406690158843994</v>
+        <v>0.7516711950302124</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.9533333333333333</v>
+        <v>0.979375</v>
       </c>
       <c r="B84" t="n">
-        <v>1.414112253189087</v>
+        <v>0.7477520555257797</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9533333333333333</v>
+        <v>0.979375</v>
       </c>
       <c r="B85" t="n">
-        <v>1.402163915634155</v>
+        <v>0.7553801536560059</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.9558333333333333</v>
+        <v>0.9818750000000001</v>
       </c>
       <c r="B86" t="n">
-        <v>1.410969581604004</v>
+        <v>0.7468342036008835</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9458333333333333</v>
+        <v>0.9818750000000001</v>
       </c>
       <c r="B87" t="n">
-        <v>1.402501888275147</v>
+        <v>0.768206387758255</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9508333333333333</v>
+        <v>0.9870833333333334</v>
       </c>
       <c r="B88" t="n">
-        <v>1.402378206253052</v>
+        <v>0.7521008998155594</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9508333333333333</v>
+        <v>0.979375</v>
       </c>
       <c r="B89" t="n">
-        <v>1.400188899040222</v>
+        <v>0.7615621536970139</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9483333333333333</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>1.398309969902038</v>
+        <v>0.7644734978675842</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9483333333333333</v>
+        <v>0.9768749999999999</v>
       </c>
       <c r="B91" t="n">
-        <v>1.39956919670105</v>
+        <v>0.750590056180954</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9508333333333333</v>
+        <v>0.979375</v>
       </c>
       <c r="B92" t="n">
-        <v>1.397825145721435</v>
+        <v>0.7495388090610504</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9483333333333333</v>
+        <v>0.979375</v>
       </c>
       <c r="B93" t="n">
-        <v>1.399101138114929</v>
+        <v>0.7454115301370621</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9458333333333333</v>
+        <v>0.9870833333333334</v>
       </c>
       <c r="B94" t="n">
-        <v>1.400249910354614</v>
+        <v>0.7511649578809738</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9508333333333333</v>
+        <v>0.979375</v>
       </c>
       <c r="B95" t="n">
-        <v>1.397479019165039</v>
+        <v>0.7416035979986191</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9508333333333333</v>
+        <v>0.979375</v>
       </c>
       <c r="B96" t="n">
-        <v>1.399870629310608</v>
+        <v>0.7452571392059326</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9508333333333333</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B97" t="n">
-        <v>1.394823045730591</v>
+        <v>0.7436638921499252</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9508333333333333</v>
+        <v>0.9818750000000001</v>
       </c>
       <c r="B98" t="n">
-        <v>1.396060285568237</v>
+        <v>0.7471634745597839</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.955</v>
+        <v>0.9870833333333334</v>
       </c>
       <c r="B99" t="n">
-        <v>1.396755599975586</v>
+        <v>0.7450230568647385</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.955</v>
+        <v>0.9818750000000001</v>
       </c>
       <c r="B100" t="n">
-        <v>1.416778249740601</v>
+        <v>0.7577723413705826</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.96</v>
+        <v>0.9870833333333334</v>
       </c>
       <c r="B101" t="n">
-        <v>1.425478577613831</v>
+        <v>0.7389269769191742</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.7386711686849594</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.7413939237594604</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.7482080012559891</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.7477266788482666</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.7386441677808762</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.9870833333333334</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.7380463629961014</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.7622688561677933</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.7413902431726456</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.9870833333333334</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.7410916686058044</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.9870833333333334</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.7442143112421036</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.979375</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.7481484264135361</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.7368744611740112</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.7338695973157883</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.7466806471347809</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.7491462379693985</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.7347101420164108</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.7333581298589706</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.7461823672056198</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.738453134894371</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.7340423613786697</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.7368202358484268</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.7350547313690186</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.979375</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.743182510137558</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.7507811039686203</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.7367551624774933</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.979375</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.7307215481996536</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.7408117055892944</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.7447566986083984</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.979375</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.7463732808828354</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.979375</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.7366937398910522</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.979375</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.7354869842529297</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.979375</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.7296882420778275</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.7338848263025284</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.7361651062965393</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.979375</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.7331545203924179</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.979375</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.7505969852209091</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.7435989677906036</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.7318021953105927</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.7428878098726273</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.9870833333333334</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.7343999445438385</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.979375</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.7374031394720078</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.7343348562717438</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.7423174828290939</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.7260907143354416</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.7476337105035782</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.979375</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.7351206392049789</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.9870833333333334</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.7279006242752075</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.979375</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.7432753294706345</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.9768749999999999</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.7325460910797119</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.7283272743225098</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.7318195700645447</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.979375</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.745870515704155</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.979375</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.7252113223075867</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.979375</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.7327673137187958</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.7316893935203552</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.7266915589570999</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.7343350499868393</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.9768749999999999</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.7397629618644714</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.7351993918418884</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.9768749999999999</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.7264569848775864</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.728207990527153</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.731890007853508</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.7354601174592972</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.979375</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.7338167279958725</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.7381773591041565</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.9768749999999999</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.7267497777938843</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.729764387011528</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.979375</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.7295682728290558</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.9768749999999999</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.7360009402036667</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.979375</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.731136679649353</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.979375</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.7213317900896072</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.7287067919969559</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.727614164352417</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.979375</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.7267773598432541</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.7233852595090866</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.979375</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.7351501286029816</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.9768749999999999</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.7294214814901352</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.979375</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.7285248935222626</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.979375</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.7283067107200623</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.7372581958770752</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.979375</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.7236195802688599</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.979375</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.7260001003742218</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.7292976677417755</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.979375</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.7277065515518188</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.9766666666666667</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.7229458838701248</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.979375</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.7239077985286713</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.979375</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.7312317788600922</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.979375</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.727745458483696</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9768749999999999</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.7360871434211731</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.979375</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.7191407233476639</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.979375</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.7200165241956711</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.979375</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.724510595202446</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.9818750000000001</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.7315490990877151</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.9766666666666667</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.7267741560935974</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9766666666666667</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.721917524933815</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9741666666666666</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.7218576371669769</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.979375</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.7304470241069794</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.9766666666666667</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.7212620675563812</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.9766666666666667</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.7218207567930222</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.9766666666666667</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7189333587884903</v>
       </c>
     </row>
   </sheetData>
